--- a/notebooks/NBAS/input/NBAS_SOPH_individuals.xlsx
+++ b/notebooks/NBAS/input/NBAS_SOPH_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/NBAS/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536EEEB4-A39A-3F4F-ABB8-4CE21CFCBC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9387275-6AF7-DF49-AF63-27DA4C50CB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="5060" windowWidth="50520" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="6900" windowWidth="39180" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="290">
   <si>
     <t>PMID</t>
   </si>
@@ -271,9 +271,6 @@
     <t>Kyphosis</t>
   </si>
   <si>
-    <t>Clinodactyly</t>
-  </si>
-  <si>
     <t>Overlapping toe</t>
   </si>
   <si>
@@ -514,9 +511,6 @@
     <t>HP:0002808</t>
   </si>
   <si>
-    <t>HP:0030084</t>
-  </si>
-  <si>
     <t>HP:0001845</t>
   </si>
   <si>
@@ -776,13 +770,133 @@
   </si>
   <si>
     <t>NP_056993.2:p.(Val253Gly)</t>
+  </si>
+  <si>
+    <t>Failure to thrive</t>
+  </si>
+  <si>
+    <t>HP:0001508</t>
+  </si>
+  <si>
+    <t>Delayed gross motor development</t>
+  </si>
+  <si>
+    <t>HP:0002194</t>
+  </si>
+  <si>
+    <t>P1Y</t>
+  </si>
+  <si>
+    <t>Deeply set eye</t>
+  </si>
+  <si>
+    <t>HP:0000490</t>
+  </si>
+  <si>
+    <t>Clinodactyly of the 5th finger</t>
+  </si>
+  <si>
+    <t>HP:0004209</t>
+  </si>
+  <si>
+    <t>Osteopenia</t>
+  </si>
+  <si>
+    <t>HP:0000938</t>
+  </si>
+  <si>
+    <t>PMID:26578240</t>
+  </si>
+  <si>
+    <t>Neuroblastoma Amplified Sequence (NBAS) mutation in recurrent acute liver failure: Confirmatory report in a sibship with very early onset, osteoporosis and developmental delay</t>
+  </si>
+  <si>
+    <t>individual II.1</t>
+  </si>
+  <si>
+    <t>NBAS24</t>
+  </si>
+  <si>
+    <t>individual II.2</t>
+  </si>
+  <si>
+    <t>NBAS25</t>
+  </si>
+  <si>
+    <t>individual II.3</t>
+  </si>
+  <si>
+    <t>NBAS26</t>
+  </si>
+  <si>
+    <t>Axial hypotonia</t>
+  </si>
+  <si>
+    <t>HP:0008936</t>
+  </si>
+  <si>
+    <t>Frontal bossing</t>
+  </si>
+  <si>
+    <t>HP:0002007</t>
+  </si>
+  <si>
+    <t>Downslanted palpebral fissures</t>
+  </si>
+  <si>
+    <t>HP:0000494</t>
+  </si>
+  <si>
+    <t>Hypertelorism</t>
+  </si>
+  <si>
+    <t>HP:0000316</t>
+  </si>
+  <si>
+    <t>Telecanthus</t>
+  </si>
+  <si>
+    <t>HP:0000506</t>
+  </si>
+  <si>
+    <t>Gingival overgrowth</t>
+  </si>
+  <si>
+    <t>HP:0000212</t>
+  </si>
+  <si>
+    <t>Splenomegaly</t>
+  </si>
+  <si>
+    <t>HP:0001744</t>
+  </si>
+  <si>
+    <t>Pathologic fracture</t>
+  </si>
+  <si>
+    <t>HP:0002756</t>
+  </si>
+  <si>
+    <t>Neonatal onset</t>
+  </si>
+  <si>
+    <t>P1Y6M</t>
+  </si>
+  <si>
+    <t>P3Y8M</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>P4M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -802,6 +916,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -842,7 +963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -856,6 +977,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1160,15 +1282,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DJ5"/>
+  <dimension ref="A1:DV8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BW1" sqref="BW1:BW1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:114" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:126" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1233,286 +1355,322 @@
         <v>62</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AT1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="BA1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AX1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="BO1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="BL1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BY1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BO1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BQ1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BR1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="CC1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BT1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="BU1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="CF1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BW1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="BX1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="CK1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CO1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="CP1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="CE1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="CF1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CQ1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="CR1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="CS1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CT1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CU1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="CV1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CK1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CW1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CX1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CY1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CZ1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DA1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="DB1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="DC1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="DD1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="DE1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="DF1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DG1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="DH1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="DI1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="CQ1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="CR1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="CS1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="CT1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="CU1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="CV1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="CW1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="CX1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="CY1" s="2" t="s">
+      <c r="DJ1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="DK1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="CZ1" s="2" t="s">
+      <c r="DL1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="DA1" s="2" t="s">
+      <c r="DM1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="DB1" s="2" t="s">
+      <c r="DN1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="DC1" s="2" t="s">
+      <c r="DO1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="DD1" s="2" t="s">
+      <c r="DP1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="DQ1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="DE1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="DF1" s="2" t="s">
+      <c r="DR1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="DG1" s="2" t="s">
+      <c r="DS1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="DH1" s="2" t="s">
+      <c r="DT1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="DI1" s="2" t="s">
+      <c r="DU1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="DJ1" s="1" t="s">
-        <v>139</v>
+      <c r="DV1" s="4" t="s">
+        <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1565,309 +1723,345 @@
         <v>43</v>
       </c>
       <c r="R2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S2" t="s">
         <v>140</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>141</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>142</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>282</v>
+      </c>
+      <c r="W2" t="s">
         <v>143</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>144</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>145</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>146</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>147</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>148</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>149</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>150</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>151</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH2" t="s">
         <v>152</v>
       </c>
-      <c r="AE2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>153</v>
       </c>
-      <c r="AH2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>154</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM2" t="s">
         <v>155</v>
       </c>
-      <c r="AK2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>156</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AO2" t="s">
         <v>157</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>158</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU2" t="s">
         <v>159</v>
       </c>
-      <c r="AP2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ2" t="s">
+      <c r="AV2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW2" t="s">
         <v>160</v>
       </c>
-      <c r="AR2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS2" t="s">
+      <c r="AX2" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>278</v>
+      </c>
+      <c r="BA2" t="s">
         <v>161</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BB2" t="s">
+        <v>181</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>280</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE2" t="s">
         <v>162</v>
       </c>
-      <c r="AU2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV2" t="s">
+      <c r="BF2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG2" t="s">
         <v>163</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BH2" t="s">
         <v>164</v>
       </c>
-      <c r="AX2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AY2" t="s">
+      <c r="BI2" t="s">
         <v>165</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BJ2" t="s">
         <v>166</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BK2" t="s">
         <v>167</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BL2" t="s">
         <v>168</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BM2" t="s">
+        <v>260</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>284</v>
+      </c>
+      <c r="BO2" t="s">
         <v>169</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BP2" t="s">
         <v>170</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BQ2" t="s">
         <v>171</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BR2" t="s">
         <v>172</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BS2" t="s">
         <v>173</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BT2" t="s">
         <v>174</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BU2" t="s">
         <v>175</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BV2" t="s">
         <v>176</v>
       </c>
-      <c r="BK2" t="s">
-        <v>177</v>
-      </c>
-      <c r="BL2" t="s">
+      <c r="BW2" t="s">
         <v>178</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BX2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BY2" t="s">
         <v>179</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BZ2" t="s">
         <v>180</v>
       </c>
-      <c r="BO2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>181</v>
-      </c>
-      <c r="BQ2" t="s">
+      <c r="CA2" t="s">
         <v>182</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="CB2" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC2" t="s">
         <v>183</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="CD2" t="s">
         <v>184</v>
       </c>
-      <c r="BT2" t="s">
-        <v>49</v>
-      </c>
-      <c r="BU2" t="s">
+      <c r="CE2" t="s">
+        <v>54</v>
+      </c>
+      <c r="CF2" t="s">
         <v>185</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="CG2" t="s">
         <v>186</v>
       </c>
-      <c r="BW2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BX2" t="s">
+      <c r="CH2" t="s">
         <v>187</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CI2" t="s">
         <v>188</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CJ2" t="s">
+        <v>258</v>
+      </c>
+      <c r="CK2" t="s">
         <v>189</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CL2" t="s">
         <v>190</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CM2" t="s">
         <v>191</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CN2" t="s">
+        <v>53</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>56</v>
+      </c>
+      <c r="CP2" t="s">
         <v>192</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CQ2" t="s">
+        <v>46</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>270</v>
+      </c>
+      <c r="CS2" t="s">
         <v>193</v>
       </c>
-      <c r="CE2" t="s">
-        <v>53</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>56</v>
-      </c>
-      <c r="CG2" t="s">
+      <c r="CT2" t="s">
         <v>194</v>
       </c>
-      <c r="CH2" t="s">
-        <v>46</v>
-      </c>
-      <c r="CI2" t="s">
+      <c r="CU2" t="s">
+        <v>57</v>
+      </c>
+      <c r="CV2" t="s">
         <v>195</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CW2" t="s">
         <v>196</v>
       </c>
-      <c r="CK2" t="s">
-        <v>57</v>
-      </c>
-      <c r="CL2" t="s">
+      <c r="CX2" t="s">
         <v>197</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CY2" t="s">
         <v>198</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CZ2" t="s">
+        <v>202</v>
+      </c>
+      <c r="DA2" t="s">
         <v>199</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="DB2" t="s">
+        <v>201</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>203</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>204</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>205</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>206</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>207</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>208</v>
+      </c>
+      <c r="DI2" t="s">
         <v>200</v>
       </c>
-      <c r="CP2" t="s">
-        <v>201</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>202</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>203</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>204</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>205</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>206</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>207</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>208</v>
-      </c>
-      <c r="CX2" t="s">
+      <c r="DJ2" t="s">
+        <v>253</v>
+      </c>
+      <c r="DK2" t="s">
         <v>209</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DL2" t="s">
         <v>210</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DM2" t="s">
         <v>211</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DN2" t="s">
         <v>212</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DO2" t="s">
         <v>213</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DP2" t="s">
+        <v>185</v>
+      </c>
+      <c r="DQ2" t="s">
         <v>214</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DR2" t="s">
         <v>215</v>
       </c>
-      <c r="DE2" t="s">
-        <v>187</v>
-      </c>
-      <c r="DF2" t="s">
+      <c r="DS2" t="s">
         <v>216</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DT2" t="s">
         <v>217</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DU2" t="s">
         <v>218</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="DV2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>219</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="B3" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="3" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>221</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>222</v>
-      </c>
-      <c r="C3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" t="s">
-        <v>224</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
@@ -1885,285 +2079,291 @@
         <v>39</v>
       </c>
       <c r="J3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L3" t="s">
+        <v>245</v>
+      </c>
+      <c r="M3" t="s">
+        <v>224</v>
+      </c>
+      <c r="N3" t="s">
         <v>225</v>
       </c>
-      <c r="K3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L3" t="s">
-        <v>247</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>226</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>227</v>
-      </c>
-      <c r="O3" t="s">
-        <v>228</v>
-      </c>
-      <c r="P3" t="s">
-        <v>229</v>
       </c>
       <c r="Q3" t="s">
         <v>43</v>
       </c>
       <c r="R3" t="s">
+        <v>228</v>
+      </c>
+      <c r="S3" t="s">
+        <v>224</v>
+      </c>
+      <c r="T3" t="s">
+        <v>229</v>
+      </c>
+      <c r="U3" t="s">
         <v>230</v>
-      </c>
-      <c r="S3" t="s">
-        <v>226</v>
-      </c>
-      <c r="T3" t="s">
-        <v>231</v>
-      </c>
-      <c r="U3" t="s">
-        <v>232</v>
-      </c>
-      <c r="V3" t="s">
-        <v>233</v>
       </c>
       <c r="W3" t="s">
         <v>231</v>
       </c>
       <c r="X3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Y3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Z3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AA3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AB3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AC3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AD3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AE3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AF3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AG3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AH3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AI3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AJ3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AK3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AL3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AM3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AN3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AO3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AP3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AQ3" t="s">
-        <v>230</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>230</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AT3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AU3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AV3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AW3" t="s">
-        <v>231</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>230</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>231</v>
-      </c>
-      <c r="AZ3" t="s">
+        <v>229</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>229</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>229</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>228</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>228</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>228</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>229</v>
+      </c>
+      <c r="BH3" t="s">
         <v>43</v>
       </c>
-      <c r="BA3" t="s">
-        <v>230</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>231</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>231</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>230</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>231</v>
-      </c>
-      <c r="BF3" t="s">
+      <c r="BI3" t="s">
+        <v>228</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>229</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>229</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>228</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>228</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>229</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>232</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>232</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>229</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>229</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>228</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>229</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>229</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>229</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>228</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>229</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>229</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>229</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>229</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>229</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>229</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>229</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>229</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>229</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>229</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>229</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>229</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>229</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>229</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>229</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>229</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>229</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>43</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>43</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>43</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>229</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>228</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>228</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>229</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>229</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>229</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>229</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>229</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>229</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>229</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>229</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" t="s">
         <v>234</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>234</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>231</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>231</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>231</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>231</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>231</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>231</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>230</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>231</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>231</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>231</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>231</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>231</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>231</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>231</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>231</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>231</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>231</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>231</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>231</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>231</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>231</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>231</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>231</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>231</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>43</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>43</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>231</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>230</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>230</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>231</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>231</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>231</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>231</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>231</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>231</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>231</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>231</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" t="s">
-        <v>236</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
@@ -2181,276 +2381,282 @@
         <v>39</v>
       </c>
       <c r="J4" t="s">
+        <v>235</v>
+      </c>
+      <c r="K4" t="s">
+        <v>247</v>
+      </c>
+      <c r="L4" t="s">
+        <v>236</v>
+      </c>
+      <c r="M4" t="s">
         <v>237</v>
       </c>
-      <c r="K4" t="s">
-        <v>249</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>238</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
+        <v>226</v>
+      </c>
+      <c r="P4" t="s">
         <v>239</v>
-      </c>
-      <c r="N4" t="s">
-        <v>240</v>
-      </c>
-      <c r="O4" t="s">
-        <v>228</v>
-      </c>
-      <c r="P4" t="s">
-        <v>241</v>
       </c>
       <c r="Q4" t="s">
         <v>43</v>
       </c>
       <c r="R4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="S4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="T4" t="s">
         <v>43</v>
       </c>
       <c r="U4" t="s">
+        <v>241</v>
+      </c>
+      <c r="W4" t="s">
+        <v>228</v>
+      </c>
+      <c r="X4" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>228</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>229</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>229</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>229</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>229</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>228</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>229</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>228</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>229</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>229</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>228</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>228</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>229</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>229</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>229</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>229</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>228</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>229</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>229</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>228</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>229</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>228</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>43</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>43</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>43</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>229</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>229</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>229</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>228</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>228</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>43</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" t="s">
         <v>243</v>
-      </c>
-      <c r="V4" t="s">
-        <v>230</v>
-      </c>
-      <c r="W4" t="s">
-        <v>231</v>
-      </c>
-      <c r="X4" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>230</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>230</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>230</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>230</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>230</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>230</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>230</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>43</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>230</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>231</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>231</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>230</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>231</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>231</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>231</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>231</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>231</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>231</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>231</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>230</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>231</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>231</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>231</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>231</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>231</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>231</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>231</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>231</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>231</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>231</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>231</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>231</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>231</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>230</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>231</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>231</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>231</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>231</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>43</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>43</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>231</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>231</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>231</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>231</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>231</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>231</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>231</v>
-      </c>
-      <c r="CQ4" t="s">
-        <v>230</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>231</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>230</v>
-      </c>
-      <c r="DA4" t="s">
-        <v>43</v>
-      </c>
-      <c r="DJ4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B5" t="s">
-        <v>245</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
@@ -2468,34 +2674,397 @@
         <v>39</v>
       </c>
       <c r="J5" t="s">
+        <v>235</v>
+      </c>
+      <c r="K5" t="s">
+        <v>248</v>
+      </c>
+      <c r="L5" t="s">
+        <v>249</v>
+      </c>
+      <c r="M5" t="s">
         <v>237</v>
       </c>
-      <c r="K5" t="s">
-        <v>250</v>
-      </c>
-      <c r="L5" t="s">
-        <v>251</v>
-      </c>
-      <c r="M5" t="s">
-        <v>246</v>
-      </c>
       <c r="N5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q5" t="s">
         <v>43</v>
       </c>
       <c r="R5" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="S5" t="s">
-        <v>246</v>
+        <v>244</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>228</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>229</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>228</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>228</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>228</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>228</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>43</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>237</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>237</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>235</v>
+      </c>
+      <c r="K6" t="s">
+        <v>235</v>
+      </c>
+      <c r="M6" t="s">
+        <v>285</v>
+      </c>
+      <c r="N6" t="s">
+        <v>286</v>
+      </c>
+      <c r="O6" t="s">
+        <v>288</v>
+      </c>
+      <c r="P6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" t="s">
+        <v>228</v>
+      </c>
+      <c r="S6" t="s">
+        <v>228</v>
+      </c>
+      <c r="U6" t="s">
+        <v>228</v>
+      </c>
+      <c r="V6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>228</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>228</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>228</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>228</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>228</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>285</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>228</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M7" t="s">
+        <v>285</v>
+      </c>
+      <c r="N7" t="s">
+        <v>287</v>
+      </c>
+      <c r="O7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" t="s">
+        <v>228</v>
+      </c>
+      <c r="S7" t="s">
+        <v>228</v>
+      </c>
+      <c r="U7" t="s">
+        <v>228</v>
+      </c>
+      <c r="V7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>228</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>228</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>228</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>228</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>228</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>285</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>228</v>
+      </c>
+      <c r="DK7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>235</v>
+      </c>
+      <c r="K8" t="s">
+        <v>235</v>
+      </c>
+      <c r="M8" t="s">
+        <v>289</v>
+      </c>
+      <c r="N8" t="s">
+        <v>244</v>
+      </c>
+      <c r="O8" t="s">
+        <v>288</v>
+      </c>
+      <c r="P8" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" t="s">
+        <v>228</v>
+      </c>
+      <c r="S8" t="s">
+        <v>228</v>
+      </c>
+      <c r="U8" t="s">
+        <v>228</v>
+      </c>
+      <c r="V8" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>228</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>228</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU8" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>228</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>228</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>229</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>228</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>228</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>228</v>
+      </c>
+      <c r="BM8" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>229</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>228</v>
+      </c>
+      <c r="DK8" t="s">
+        <v>228</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>228</v>
+      </c>
+      <c r="DV8" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
